--- a/HWP_hand_high.xlsx
+++ b/HWP_hand_high.xlsx
@@ -10,6 +10,7 @@
     <sheet name="measured" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="calculated" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1143,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03254268343849959</v>
+        <v>0.03254268465275995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9674573165615004</v>
+        <v>0.9674573153472401</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1248031448591626</v>
+        <v>0.1248031445349757</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1261262808122938</v>
+        <v>0.12612628048467</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000012970315</v>
+        <v>1.00000001037273</v>
       </c>
     </row>
     <row r="3">
@@ -1163,19 +1164,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06242859784808608</v>
+        <v>0.06242859853692478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9375714021519139</v>
+        <v>0.9375714014630752</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2081479837107068</v>
+        <v>0.2081479833830336</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1233113592401751</v>
+        <v>0.1233113590460544</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000012843368</v>
+        <v>1.000000011269137</v>
       </c>
     </row>
     <row r="4">
@@ -1183,19 +1184,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1209820803430202</v>
+        <v>0.1209820810317784</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8790179196569798</v>
+        <v>0.8790179189682216</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3009298835184019</v>
+        <v>0.3009298829715466</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1256448713950072</v>
+        <v>0.125644871166683</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000023846743</v>
+        <v>1.000000022029525</v>
       </c>
     </row>
     <row r="5">
@@ -1203,19 +1204,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2324890995606754</v>
+        <v>0.2324891015093183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7675109004393246</v>
+        <v>0.7675108984906817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3984428037605018</v>
+        <v>0.3984428008581052</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1402899444704419</v>
+        <v>0.1402899434485209</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000036483815</v>
+        <v>1.000000029199465</v>
       </c>
     </row>
     <row r="6">
@@ -1223,19 +1224,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4055817035871282</v>
+        <v>0.4055817042816183</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5944182964128718</v>
+        <v>0.5944182957183817</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4668460211525327</v>
+        <v>0.466846017718665</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1521183664429601</v>
+        <v>0.1521183653240594</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000039145469</v>
+        <v>1.000000031790008</v>
       </c>
     </row>
     <row r="7">
@@ -1243,19 +1244,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6274090833077034</v>
+        <v>0.6274090824001115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3725909166922966</v>
+        <v>0.3725909175998885</v>
       </c>
       <c r="D7" t="n">
-        <v>0.459705746529146</v>
+        <v>0.4597057432544561</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1497917601050026</v>
+        <v>0.1497917590379689</v>
       </c>
       <c r="F7" t="n">
-        <v>1.000000038593167</v>
+        <v>1.000000031469718</v>
       </c>
     </row>
     <row r="8">
@@ -1263,19 +1264,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.791893868617241</v>
+        <v>0.7918938665897139</v>
       </c>
       <c r="C8" t="n">
-        <v>0.208106131382759</v>
+        <v>0.2081061334102861</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3825578732635055</v>
+        <v>0.382557870606216</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1358214292967785</v>
+        <v>0.1358214283533477</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000035176911</v>
+        <v>1.000000028230799</v>
       </c>
     </row>
     <row r="9">
@@ -1283,19 +1284,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.890951842837601</v>
+        <v>0.8909518430700784</v>
       </c>
       <c r="C9" t="n">
-        <v>0.109048157162399</v>
+        <v>0.1090481569299216</v>
       </c>
       <c r="D9" t="n">
-        <v>0.286355077867892</v>
+        <v>0.2863550780381714</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1231155364725428</v>
+        <v>0.1231155365457528</v>
       </c>
       <c r="F9" t="n">
-        <v>1.000000018719529</v>
+        <v>1.000000019314174</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1304,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9447900130034494</v>
+        <v>0.9447900120694688</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05520998699655061</v>
+        <v>0.05520998793053117</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1965202401520646</v>
+        <v>0.1965202397394069</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1163685782145715</v>
+        <v>0.1163685779702181</v>
       </c>
       <c r="F10" t="n">
-        <v>1.00000001290543</v>
+        <v>1.000000010805606</v>
       </c>
     </row>
     <row r="11">
@@ -1323,19 +1324,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9696170122342189</v>
+        <v>0.9696170114597213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03038298776578113</v>
+        <v>0.03038298854027865</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1174042530585547</v>
+        <v>0.1174042528649303</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1252042715320069</v>
+        <v>0.1252042713255187</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000000012851785</v>
+        <v>1.000000011202573</v>
       </c>
     </row>
     <row r="12">
@@ -1343,19 +1344,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9793136709542686</v>
+        <v>0.9793136698290263</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02068632904573142</v>
+        <v>0.02068633017097365</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03952013071801067</v>
+        <v>0.03952013062523277</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1367354255323685</v>
+        <v>0.1367354252113668</v>
       </c>
       <c r="F12" t="n">
-        <v>1.000000024982287</v>
+        <v>1.000000022634675</v>
       </c>
     </row>
     <row r="13">
@@ -1363,19 +1364,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9681533615843543</v>
+        <v>0.968153358253151</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03184663841564567</v>
+        <v>0.03184664174684898</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04500145782019347</v>
+        <v>-0.04500145749998</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1697271873640694</v>
+        <v>0.1697271861563546</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000000038598383</v>
+        <v>1.000000031482759</v>
       </c>
     </row>
     <row r="14">
@@ -1383,19 +1384,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9090446279234625</v>
+        <v>0.9090446407686883</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09095537207653753</v>
+        <v>0.09095535923131176</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1665464011830396</v>
+        <v>-0.166546406413095</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2344030478408899</v>
+        <v>0.2344030552018472</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000434329</v>
+        <v>1.000000031837323</v>
       </c>
     </row>
     <row r="15">
@@ -1403,19 +1404,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6997273581195145</v>
+        <v>0.6997273631360486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3002726418804855</v>
+        <v>0.3002726368639514</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3064093159564551</v>
+        <v>-0.3064093236525103</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3409139388591713</v>
+        <v>0.340913947421876</v>
       </c>
       <c r="F15" t="n">
-        <v>1.000000000389557</v>
+        <v>1.000000025506467</v>
       </c>
     </row>
     <row r="16">
@@ -1423,19 +1424,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2845527408813796</v>
+        <v>0.2845527354297051</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7154472591186204</v>
+        <v>0.7154472645702949</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3011473910791382</v>
+        <v>-0.3011473986993679</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3359951302921341</v>
+        <v>0.3359951387941504</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000000000391051</v>
+        <v>1.000000025695038</v>
       </c>
     </row>
     <row r="17">
@@ -1443,19 +1444,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07948520064270326</v>
+        <v>0.079485205365186</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9205147993572967</v>
+        <v>0.920514794634814</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1493813477542414</v>
+        <v>-0.1493813460766528</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2255050737011457</v>
+        <v>0.2255050711686693</v>
       </c>
       <c r="F17" t="n">
-        <v>1.000000043600681</v>
+        <v>1.000000032370438</v>
       </c>
     </row>
     <row r="18">
@@ -1463,19 +1464,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03116295840648181</v>
+        <v>0.03116296182507328</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9688370415935181</v>
+        <v>0.9688370381749267</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.04115648154731985</v>
+        <v>-0.04115648124722153</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1688134818657283</v>
+        <v>0.1688134806348009</v>
       </c>
       <c r="F18" t="n">
-        <v>1.000000038406295</v>
+        <v>1.000000031114654</v>
       </c>
     </row>
     <row r="19">
@@ -1483,19 +1484,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02101318121973089</v>
+        <v>0.02101318187701839</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9789868187802691</v>
+        <v>0.9789868181229816</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04331263786842859</v>
+        <v>0.04331263780899301</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1367320528787648</v>
+        <v>0.1367320526911348</v>
       </c>
       <c r="F19" t="n">
-        <v>1.00000002289761</v>
+        <v>1.000000021525365</v>
       </c>
     </row>
     <row r="20">
@@ -1503,19 +1504,450 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03220308061122779</v>
+        <v>0.03220308177013187</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9677969193887722</v>
+        <v>0.9677969182298681</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1221860898306671</v>
+        <v>0.1221860895279675</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1274229498141411</v>
+        <v>0.1274229494984679</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000012954141</v>
+        <v>1.000000010476775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00823926557676647</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.004280151745791</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.009748396696141807</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.008836571164085</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0400728232692661</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.967590639033394</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1872324132046697</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.00794942901871</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1302413757149329</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8663714482967404</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3359884141175454</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9933387312143561</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2669815085397383</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7272813522116881</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4384584699554157</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9847089509283042</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4221613762681594</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5705130280537252</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4871778439718916</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9783898461058586</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5982729450521631</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3950831970121937</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4862227700575049</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9868464135875511</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7538380221324389</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2403338022287728</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425627151579058</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9883490444288912</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8898654154169746</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1130531088849234</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3171034011236628</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.005750596992161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.971741668429856</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0286223414235253</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1666770057074869</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.000663557054632</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.003100076847461</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.007257711278065687</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.006130973602136205</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.006337616218999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9671013427791919</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04214208414597755</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1783546851674829</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.000681749903867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8801643560147123</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1336077484880021</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3286418997007931</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.008551320532719</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7373475987130458</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2732739591968641</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.4442503968562111</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.013076968316826</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.585142931475698</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4275341595152552</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.4981169113978479</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.021418622649452</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4200706042505858</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5917328120262253</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.4958322201203499</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.018306214402867</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2559539526500945</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7562268978018446</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.4337928423770912</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.0137440070314</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1281162565287108</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8875025188941184</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3244644612202032</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.014628869420169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03779461798848963</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.97363536423238</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.1710884653446005</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.007936781580756</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.009038262221567487</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.005213329018905</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.003154228577423192</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.010555425337093</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_hand_high.xlsx
+++ b/HWP_hand_high.xlsx
@@ -11,6 +11,7 @@
     <sheet name="calculated" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1953,4 +1954,435 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace_sq</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00193466609378859</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9980653681651108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.0159222707822376</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9966452594771784</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03774810522500854</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9622518396249239</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1905857933890676</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9999994115931092</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1317658986024291</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8682341433791049</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3347319383646786</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9952837208865037</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2698379312570733</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.73016214786142</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.4356074999044452</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9854570592607016</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4258182378288504</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5741817461434889</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.4835477452990676</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9786426932396772</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6016459029625263</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3983541098866221</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4835001262464965</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9882085335759128</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7570303134257383</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2429696919489803</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.4237348620356136</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9912316332599351</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8857858169408038</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1142329877294931</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3180972493350357</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.000037409048126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9712261945637656</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02877422233326949</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1671713270305639</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.000000782040017</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9980284094936002</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00197160076849049</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001043480351031901</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9960667710684015</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9624685513557465</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03753156866800373</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1737318873195663</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9881198683387473</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8732650845918691</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1267349424279521</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3217522916708382</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9857027279903331</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7320320719302075</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.267968146975384</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.438943222663999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9930201875731675</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5788102362977725</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4211898934090182</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4918298635613694</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9962154453345737</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4141676533940798</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5858325329549383</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4899534589677298</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9948433856952434</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2498724551897367</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.75012761737949</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4276994652928388</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9909813514415378</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1203202736650861</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8796797687904249</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3166513794355037</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9888496560708313</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03209224622152107</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9679080212922321</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1653720777968055</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9925716981790521</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.001897114660365675</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9981028999871777</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.01019143049454269</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9964207285178989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/HWP_hand_high.xlsx
+++ b/HWP_hand_high.xlsx
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00193466609378859</v>
+        <v>0.002019505168937554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9980653681651108</v>
+        <v>0.9979798498512131</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0159222707822376</v>
+        <v>-0.01592065001370847</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9966452594771784</v>
+        <v>0.9964747933038952</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03774810522500854</v>
+        <v>0.03775121104179369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9622518396249239</v>
+        <v>0.9622482864378208</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1905857933890676</v>
+        <v>-0.1905847500172665</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999994115931092</v>
+        <v>0.9999920125659324</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2047,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1317658986024291</v>
+        <v>0.1317669245460725</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8682341433791049</v>
+        <v>0.8682276899384402</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3347319383646786</v>
+        <v>-0.3347295139141208</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9952837208865037</v>
+        <v>0.9952695389505378</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2067,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2698379312570733</v>
+        <v>0.2698471110337028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.73016214786142</v>
+        <v>0.7301526106211418</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4356074999044452</v>
+        <v>-0.4355967001524083</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9854570592607016</v>
+        <v>0.9854292684974385</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2087,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4258182378288504</v>
+        <v>0.4258164587174995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5741817461434889</v>
+        <v>0.5741829257774871</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4835477452990676</v>
+        <v>-0.4835647815288496</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9786426932396772</v>
+        <v>0.9786754846391954</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2107,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6016459029625263</v>
+        <v>0.6016475680482561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3983541098866221</v>
+        <v>0.3983521804261683</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4835001262464965</v>
+        <v>-0.4835133543444232</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9882085335759128</v>
+        <v>0.9882345834474551</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2127,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7570303134257383</v>
+        <v>0.7570344801606388</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2429696919489803</v>
+        <v>0.242965153778731</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4237348620356136</v>
+        <v>-0.4237450773817907</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912316332599351</v>
+        <v>0.9912530513134106</v>
       </c>
     </row>
     <row r="9">
@@ -2147,19 +2147,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8857858169408038</v>
+        <v>0.8857694532051422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1142329877294931</v>
+        <v>0.1142303747011243</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3180972493350357</v>
+        <v>-0.3180906727165684</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.000037409048126</v>
+        <v>0.999999454874254</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2167,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9712261945637656</v>
+        <v>0.9712247978926558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02877422233326949</v>
+        <v>0.02877509439310877</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1671713270305639</v>
+        <v>-0.167173473826011</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000000782040017</v>
+        <v>0.9999995548010744</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2187,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9980284094936002</v>
+        <v>0.9979074051364609</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00197160076849049</v>
+        <v>0.002092578668517589</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001043480351031901</v>
+        <v>0.001043386063724748</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9960667710684015</v>
+        <v>0.9958257454206246</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2207,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9624685513557465</v>
+        <v>0.9624578348815204</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03753156866800373</v>
+        <v>0.03754206072471921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1737318873195663</v>
+        <v>0.1737275660453253</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9881198683387473</v>
+        <v>0.9880970246563483</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2227,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8732650845918691</v>
+        <v>0.8732709381244274</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1267349424279521</v>
+        <v>0.1267290263756897</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3217522916708382</v>
+        <v>0.3217568091965035</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9857027279903331</v>
+        <v>0.9857172660274779</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2247,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7320320719302075</v>
+        <v>0.7320325802648044</v>
       </c>
       <c r="C14" t="n">
-        <v>0.267968146975384</v>
+        <v>0.2679670950812105</v>
       </c>
       <c r="D14" t="n">
-        <v>0.438943222663999</v>
+        <v>0.4389443617132359</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9930201875731675</v>
+        <v>0.99302236797509</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2267,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5788102362977725</v>
+        <v>0.5787998687880876</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4211898934090182</v>
+        <v>0.4211995446830746</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4918298635613694</v>
+        <v>0.4917673561469877</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9962154453345737</v>
+        <v>0.9960886096939333</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2287,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4141676533940798</v>
+        <v>0.4141706009673429</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5858325329549383</v>
+        <v>0.5858288293242142</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4899534589677298</v>
+        <v>0.4899343816007765</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9948433856952434</v>
+        <v>0.9948041005220998</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2307,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2498724551897367</v>
+        <v>0.2498689946108097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.75012761737949</v>
+        <v>0.7501308085203817</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4276994652928388</v>
+        <v>0.4277047569303205</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9909813514415378</v>
+        <v>0.9909934625609076</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2327,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1203202736650861</v>
+        <v>0.1203110503589476</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8796797687904249</v>
+        <v>0.8796888577510674</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3166513794355037</v>
+        <v>0.3166586273697568</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9888496560708313</v>
+        <v>0.9888726078652479</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2347,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03209224622152107</v>
+        <v>0.03208812392936315</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9679080212922321</v>
+        <v>0.967911609145745</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1653720777968055</v>
+        <v>0.1653730626948569</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9925716981790521</v>
+        <v>0.9925790305465658</v>
       </c>
     </row>
     <row r="20">
@@ -2367,19 +2367,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001897114660365675</v>
+        <v>0.001961610738810364</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9981028999871777</v>
+        <v>0.998038128551644</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01019143049454269</v>
+        <v>-0.01019044392941942</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9964207285178989</v>
+        <v>0.9962916442545157</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_hand_high.xlsx
+++ b/HWP_hand_high.xlsx
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002019505168937554</v>
+        <v>0.002008720035491786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9979798498512131</v>
+        <v>0.997991279964508</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01592065001370847</v>
+        <v>-0.01592100512942188</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9964747933038952</v>
+        <v>0.9964975866500401</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03775121104179369</v>
+        <v>0.03774874216183625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9622482864378208</v>
+        <v>0.9622512578381636</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1905847500172665</v>
+        <v>-0.1905858715291551</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999920125659324</v>
+        <v>0.999998399598984</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2047,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1317669245460725</v>
+        <v>0.1317660722055312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8682276899384402</v>
+        <v>0.8682339277944686</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3347295139141208</v>
+        <v>-0.3347327364864055</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9952695389505378</v>
+        <v>0.9952844609092386</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2067,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2698471110337028</v>
+        <v>0.2698383726398281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7301526106211418</v>
+        <v>0.7301616273601715</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4355967001524083</v>
+        <v>-0.4356135022051994</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9854292684974385</v>
+        <v>0.9854669960251233</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2087,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4258164587174995</v>
+        <v>0.4258165032635745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5741829257774871</v>
+        <v>0.5741834967364258</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4835647815288496</v>
+        <v>-0.4835664972448492</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9786754846391954</v>
+        <v>0.9786794968913923</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2107,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6016475680482561</v>
+        <v>0.6016498271326437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3983521804261683</v>
+        <v>0.3983501728673565</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4835133543444232</v>
+        <v>-0.4835235020363564</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9882345834474551</v>
+        <v>0.9882553287551974</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2127,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7570344801606388</v>
+        <v>0.7570346236636648</v>
       </c>
       <c r="C8" t="n">
-        <v>0.242965153778731</v>
+        <v>0.2429653763363355</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4237450773817907</v>
+        <v>-0.4237450122174502</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912530513134106</v>
+        <v>0.9912532662821778</v>
       </c>
     </row>
     <row r="9">
@@ -2147,19 +2147,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8857694532051422</v>
+        <v>0.8857695945461598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1142303747011243</v>
+        <v>0.1142304054538406</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3180906727165684</v>
+        <v>-0.3180907183099906</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999999454874254</v>
+        <v>0.9999997703025487</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2167,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9712247978926558</v>
+        <v>0.971224865220418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02877509439310877</v>
+        <v>0.0287751347795822</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.167173473826011</v>
+        <v>-0.1671734786049066</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999995548010744</v>
+        <v>0.9999996911017326</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2187,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9979074051364609</v>
+        <v>0.9979019429187436</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002092578668517589</v>
+        <v>0.002098057081256728</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001043386063724748</v>
+        <v>0.001043374600447599</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9958257454206246</v>
+        <v>0.9958148667856332</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2207,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9624578348815204</v>
+        <v>0.9624999050859196</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03754206072471921</v>
+        <v>0.03750009491408049</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1737275660453253</v>
+        <v>0.1737433505878325</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9880970246563483</v>
+        <v>0.9881858281559424</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2227,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8732709381244274</v>
+        <v>0.8733446416056645</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1267290263756897</v>
+        <v>0.1266553583943359</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3217568091965035</v>
+        <v>0.3218203257530738</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9857172660274779</v>
+        <v>0.9859090869669532</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2247,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7320325802648044</v>
+        <v>0.7320708129658005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2679670950812105</v>
+        <v>0.2679291870342</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4389443617132359</v>
+        <v>0.4390163807560238</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.99302236797509</v>
+        <v>0.9931844896054515</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2267,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5787998687880876</v>
+        <v>0.5788031245778535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4211995446830746</v>
+        <v>0.4211968754221466</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4917673561469877</v>
+        <v>0.4917858443482729</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9960886096939333</v>
+        <v>0.9961264982891529</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2287,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4141706009673429</v>
+        <v>0.4141724161681785</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5858288293242142</v>
+        <v>0.5858275838318215</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4899343816007765</v>
+        <v>0.4899256459936437</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9948041005220998</v>
+        <v>0.9947870254973949</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2307,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2498689946108097</v>
+        <v>0.2498184174532385</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7501308085203817</v>
+        <v>0.7501815825467616</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4277047569303205</v>
+        <v>0.427791408324233</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9909934625609076</v>
+        <v>0.9911926265632656</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2327,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1203110503589476</v>
+        <v>0.1203005549793248</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8796888577510674</v>
+        <v>0.8796994450206753</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3166586273697568</v>
+        <v>0.3166674187812277</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9888726078652479</v>
+        <v>0.9888998453331487</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2347,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03208812392936315</v>
+        <v>0.031984641983513</v>
       </c>
       <c r="C19" t="n">
-        <v>0.967911609145745</v>
+        <v>0.9680153580164869</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1653730626948569</v>
+        <v>0.1654096832706021</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9925790305465658</v>
+        <v>0.9927974773179625</v>
       </c>
     </row>
     <row r="20">
@@ -2367,19 +2367,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001961610738810364</v>
+        <v>0.001844716687995392</v>
       </c>
       <c r="C20" t="n">
-        <v>0.998038128551644</v>
+        <v>0.9981552833120046</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01019044392941942</v>
+        <v>-0.0101928383853115</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9962916442545157</v>
+        <v>0.9965251604920253</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_hand_high.xlsx
+++ b/HWP_hand_high.xlsx
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002008720035491786</v>
+        <v>0.002008720035500571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997991279964508</v>
+        <v>0.9979912799644994</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01592100512942188</v>
+        <v>-0.01592100512942162</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9964975866500401</v>
+        <v>0.9964975866500231</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03774874216183625</v>
+        <v>0.037748742161836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9622512578381636</v>
+        <v>0.962251257838164</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1905858715291551</v>
+        <v>-0.1905858715291553</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999998399598984</v>
+        <v>0.999998399598985</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2047,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1317660722055312</v>
+        <v>0.1317660722055272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8682339277944686</v>
+        <v>0.8682339277944726</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3347327364864055</v>
+        <v>-0.3347327364864092</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9952844609092386</v>
+        <v>0.9952844609092494</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2067,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2698383726398281</v>
+        <v>0.2698383726398252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7301616273601715</v>
+        <v>0.7301616273601746</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4356135022051994</v>
+        <v>-0.4356135022052048</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9854669960251233</v>
+        <v>0.9854669960251358</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2087,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4258165032635745</v>
+        <v>0.4258165032635728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5741834967364258</v>
+        <v>0.5741834967364273</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4835664972448492</v>
+        <v>-0.4835664972448601</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9786794968913923</v>
+        <v>0.9786794968914138</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2107,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6016498271326437</v>
+        <v>0.6016498271326438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3983501728673565</v>
+        <v>0.3983501728673564</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4835235020363564</v>
+        <v>-0.4835235020363571</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9882553287551974</v>
+        <v>0.9882553287551991</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2127,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7570346236636648</v>
+        <v>0.7570346236636647</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2429653763363355</v>
+        <v>0.2429653763363356</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4237450122174502</v>
+        <v>-0.4237450122174501</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912532662821778</v>
+        <v>0.9912532662821775</v>
       </c>
     </row>
     <row r="9">
@@ -2147,7 +2147,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8857695945461598</v>
+        <v>0.8857695945461597</v>
       </c>
       <c r="C9" t="n">
         <v>0.1142304054538406</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999997703025487</v>
+        <v>0.9999997703025486</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2167,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.971224865220418</v>
+        <v>0.9712248652204185</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0287751347795822</v>
+        <v>0.02877513477958181</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1671734786049066</v>
+        <v>-0.1671734786049068</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999996911017326</v>
+        <v>0.9999996911017336</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2187,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9979019429187436</v>
+        <v>0.997901942918749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002098057081256728</v>
+        <v>0.002098057081251284</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001043374600447599</v>
+        <v>0.001043374600447579</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9958148667856332</v>
+        <v>0.995814866785644</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2207,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9624999050859196</v>
+        <v>0.9624999050859694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03750009491408049</v>
+        <v>0.037500094914031</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1737433505878325</v>
+        <v>0.173743350587851</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9881858281559424</v>
+        <v>0.9881858281560474</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2227,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8733446416056645</v>
+        <v>0.8733446416058365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1266553583943359</v>
+        <v>0.1266553583941637</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3218203257530738</v>
+        <v>0.3218203257532221</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9859090869669532</v>
+        <v>0.985909086967401</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2247,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7320708129658005</v>
+        <v>0.7320708129657651</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2679291870342</v>
+        <v>0.2679291870342352</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4390163807560238</v>
+        <v>0.4390163807559569</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9931844896054515</v>
+        <v>0.9931844896053013</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2267,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5788031245778535</v>
+        <v>0.5788031245778468</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4211968754221466</v>
+        <v>0.4211968754221534</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4917858443482729</v>
+        <v>0.4917858443482304</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9961264982891529</v>
+        <v>0.9961264982890673</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2287,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4141724161681785</v>
+        <v>0.4141724161681772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5858275838318215</v>
+        <v>0.5858275838318229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4899256459936437</v>
+        <v>0.489925645993651</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9947870254973949</v>
+        <v>0.9947870254974096</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2307,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2498184174532385</v>
+        <v>0.2498184174532663</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7501815825467616</v>
+        <v>0.7501815825467337</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427791408324233</v>
+        <v>0.4277914083241852</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9911926265632656</v>
+        <v>0.9911926265631559</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2327,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1203005549793248</v>
+        <v>0.1203005549792871</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8796994450206753</v>
+        <v>0.8796994450207132</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3166674187812277</v>
+        <v>0.3166674187812594</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9888998453331487</v>
+        <v>0.9888998453332463</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2347,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.031984641983513</v>
+        <v>0.03198464198350871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9680153580164869</v>
+        <v>0.9680153580164915</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1654096832706021</v>
+        <v>0.1654096832706037</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9927974773179625</v>
+        <v>0.9927974773179723</v>
       </c>
     </row>
     <row r="20">
@@ -2367,19 +2367,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001844716687995392</v>
+        <v>0.001844716688017797</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9981552833120046</v>
+        <v>0.9981552833119828</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0101928383853115</v>
+        <v>-0.01019283838531107</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9965251604920253</v>
+        <v>0.9965251604919818</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_hand_high.xlsx
+++ b/HWP_hand_high.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="false" showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="true"/>
   </bookViews>
   <sheets>
     <sheet name="measured" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,10 +12,34 @@
     <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="rho_mat" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="6">
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>Jxx</t>
+  </si>
+  <si>
+    <t>Jyy</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>trace_sq</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30,7 +54,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -56,20 +80,88 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="false" pivotButton="false" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -357,9 +449,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E20"/>
@@ -721,14 +813,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E20"/>
@@ -1090,14 +1182,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F20"/>
@@ -1521,14 +1613,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F20"/>
@@ -1952,14 +2044,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F20"/>
@@ -2007,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002008720035491786</v>
+        <v>0.002008720035500571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997991279964508</v>
+        <v>0.9979912799644994</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01592100512942188</v>
+        <v>-0.01592100512942162</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9964975866500401</v>
+        <v>0.9964975866500231</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2119,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03774874216183625</v>
+        <v>0.037748742161836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9622512578381636</v>
+        <v>0.962251257838164</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1905858715291551</v>
+        <v>-0.1905858715291553</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999998399598984</v>
+        <v>0.999998399598985</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2139,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1317660722055312</v>
+        <v>0.1317660722055272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8682339277944686</v>
+        <v>0.8682339277944726</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3347327364864055</v>
+        <v>-0.3347327364864092</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9952844609092386</v>
+        <v>0.9952844609092494</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2159,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2698383726398281</v>
+        <v>0.2698383726398252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7301616273601715</v>
+        <v>0.7301616273601746</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4356135022051994</v>
+        <v>-0.4356135022052048</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9854669960251233</v>
+        <v>0.9854669960251358</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2179,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4258165032635745</v>
+        <v>0.4258165032635728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5741834967364258</v>
+        <v>0.5741834967364273</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4835664972448492</v>
+        <v>-0.4835664972448601</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9786794968913923</v>
+        <v>0.9786794968914138</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2199,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6016498271326437</v>
+        <v>0.6016498271326438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3983501728673565</v>
+        <v>0.3983501728673564</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4835235020363564</v>
+        <v>-0.4835235020363571</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9882553287551974</v>
+        <v>0.9882553287551991</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2219,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7570346236636648</v>
+        <v>0.7570346236636647</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2429653763363355</v>
+        <v>0.2429653763363356</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4237450122174502</v>
+        <v>-0.4237450122174501</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912532662821778</v>
+        <v>0.9912532662821775</v>
       </c>
     </row>
     <row r="9">
@@ -2147,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8857695945461598</v>
+        <v>0.8857695945461597</v>
       </c>
       <c r="C9" t="n">
         <v>0.1142304054538406</v>
@@ -2159,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999997703025487</v>
+        <v>0.9999997703025486</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2259,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.971224865220418</v>
+        <v>0.9712248652204185</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0287751347795822</v>
+        <v>0.02877513477958181</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1671734786049066</v>
+        <v>-0.1671734786049068</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999996911017326</v>
+        <v>0.9999996911017336</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2279,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9979019429187436</v>
+        <v>0.997901942918749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002098057081256728</v>
+        <v>0.002098057081251284</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001043374600447599</v>
+        <v>0.001043374600447579</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9958148667856332</v>
+        <v>0.995814866785644</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2299,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9624999050859196</v>
+        <v>0.9624999050859694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03750009491408049</v>
+        <v>0.037500094914031</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1737433505878325</v>
+        <v>0.173743350587851</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9881858281559424</v>
+        <v>0.9881858281560474</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2319,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8733446416056645</v>
+        <v>0.8733446416058365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1266553583943359</v>
+        <v>0.1266553583941637</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3218203257530738</v>
+        <v>0.3218203257532221</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9859090869669532</v>
+        <v>0.985909086967401</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2339,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7320708129658005</v>
+        <v>0.7320708129657651</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2679291870342</v>
+        <v>0.2679291870342352</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4390163807560238</v>
+        <v>0.4390163807559569</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9931844896054515</v>
+        <v>0.9931844896053013</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2359,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5788031245778535</v>
+        <v>0.5788031245778468</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4211968754221466</v>
+        <v>0.4211968754221534</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4917858443482729</v>
+        <v>0.4917858443482304</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9961264982891529</v>
+        <v>0.9961264982890673</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2379,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4141724161681785</v>
+        <v>0.4141724161681772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5858275838318215</v>
+        <v>0.5858275838318229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4899256459936437</v>
+        <v>0.489925645993651</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9947870254973949</v>
+        <v>0.9947870254974096</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2399,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2498184174532385</v>
+        <v>0.2498184174532663</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7501815825467616</v>
+        <v>0.7501815825467337</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427791408324233</v>
+        <v>0.4277914083241852</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9911926265632656</v>
+        <v>0.9911926265631559</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2419,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1203005549793248</v>
+        <v>0.1203005549792871</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8796994450206753</v>
+        <v>0.8796994450207132</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3166674187812277</v>
+        <v>0.3166674187812594</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9888998453331487</v>
+        <v>0.9888998453332463</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2439,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.031984641983513</v>
+        <v>0.03198464198350871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9680153580164869</v>
+        <v>0.9680153580164915</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1654096832706021</v>
+        <v>0.1654096832706037</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9927974773179625</v>
+        <v>0.9927974773179723</v>
       </c>
     </row>
     <row r="20">
@@ -2367,22 +2459,439 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001844716687995392</v>
+        <v>0.001844716688017797</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9981552833120046</v>
+        <v>0.9981552833119828</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0101928383853115</v>
+        <v>-0.01019283838531107</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9965251604920253</v>
+        <v>0.9965251604919818</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0019875673820262995</v>
+      </c>
+      <c r="C2">
+        <v>0.99801243257957861</v>
+      </c>
+      <c r="D2">
+        <v>-0.015921681460088419</v>
+      </c>
+      <c r="E2">
+        <v>-0.023980732980506101</v>
+      </c>
+      <c r="F2">
+        <v>0.99999999992320987</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.038300143976986764</v>
+      </c>
+      <c r="C3">
+        <v>0.96169985604183039</v>
+      </c>
+      <c r="D3">
+        <v>-0.19120539299011718</v>
+      </c>
+      <c r="E3">
+        <v>-0.016545051372301486</v>
+      </c>
+      <c r="F3">
+        <v>1.0000000000376343</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.13176996108075961</v>
+      </c>
+      <c r="C4">
+        <v>0.86823003891449524</v>
+      </c>
+      <c r="D4">
+        <v>-0.33472920169700499</v>
+      </c>
+      <c r="E4">
+        <v>0.00087136016818634122</v>
+      </c>
+      <c r="F4">
+        <v>0.99999999999050981</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.26985008321238069</v>
+      </c>
+      <c r="C5">
+        <v>0.73014991678010799</v>
+      </c>
+      <c r="D5">
+        <v>-0.4355913373490552</v>
+      </c>
+      <c r="E5">
+        <v>0.0036427573839859593</v>
+      </c>
+      <c r="F5">
+        <v>0.99999999998497735</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.42582417586920879</v>
+      </c>
+      <c r="C6">
+        <v>0.5741758241263637</v>
+      </c>
+      <c r="D6">
+        <v>-0.48351648276271147</v>
+      </c>
+      <c r="E6">
+        <v>0.0060495060400603921</v>
+      </c>
+      <c r="F6">
+        <v>0.99999999999114486</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.60164835176064768</v>
+      </c>
+      <c r="C7">
+        <v>0.39835164822916647</v>
+      </c>
+      <c r="D7">
+        <v>-0.48351648275523851</v>
+      </c>
+      <c r="E7">
+        <v>0.0060495060399060841</v>
+      </c>
+      <c r="F7">
+        <v>0.9999999999796283</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.75703744206448775</v>
+      </c>
+      <c r="C8">
+        <v>0.2429625579264115</v>
+      </c>
+      <c r="D8">
+        <v>-0.42374965794197705</v>
+      </c>
+      <c r="E8">
+        <v>0.0058538376324049363</v>
+      </c>
+      <c r="F8">
+        <v>0.99999999998179856</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.88258086639268618</v>
+      </c>
+      <c r="C9">
+        <v>0.11741913358399098</v>
+      </c>
+      <c r="D9">
+        <v>-0.32191780109535906</v>
+      </c>
+      <c r="E9">
+        <v>-0.00089940498903787777</v>
+      </c>
+      <c r="F9">
+        <v>0.9999999999533542</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.97103468067570375</v>
+      </c>
+      <c r="C10">
+        <v>0.028965319353286903</v>
+      </c>
+      <c r="D10">
+        <v>-0.16769247529763034</v>
+      </c>
+      <c r="E10">
+        <v>-0.0023583085693309226</v>
+      </c>
+      <c r="F10">
+        <v>1.0000000000579812</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.99791320323687871</v>
+      </c>
+      <c r="C11">
+        <v>0.0020867967369334836</v>
+      </c>
+      <c r="D11">
+        <v>0.0010433982011417893</v>
+      </c>
+      <c r="E11">
+        <v>-0.020703636080215953</v>
+      </c>
+      <c r="F11">
+        <v>0.99999999994762434</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.96247960804048838</v>
+      </c>
+      <c r="C12">
+        <v>0.037520391953782969</v>
+      </c>
+      <c r="D12">
+        <v>0.17373572615537364</v>
+      </c>
+      <c r="E12">
+        <v>-0.019056799667605991</v>
+      </c>
+      <c r="F12">
+        <v>0.99999999998854272</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.87327823673078286</v>
+      </c>
+      <c r="C13">
+        <v>0.12672176326289186</v>
+      </c>
+      <c r="D13">
+        <v>0.32176308520606922</v>
+      </c>
+      <c r="E13">
+        <v>-0.025920360615383185</v>
+      </c>
+      <c r="F13">
+        <v>0.99999999998734945</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.73203673723103313</v>
+      </c>
+      <c r="C14">
+        <v>0.26796326275882543</v>
+      </c>
+      <c r="D14">
+        <v>0.43895191722383592</v>
+      </c>
+      <c r="E14">
+        <v>-0.021148819334064289</v>
+      </c>
+      <c r="F14">
+        <v>0.99999999997971711</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.5788043479980608</v>
+      </c>
+      <c r="C15">
+        <v>0.42119565198061415</v>
+      </c>
+      <c r="D15">
+        <v>0.49179347799844764</v>
+      </c>
+      <c r="E15">
+        <v>-0.024264382946569234</v>
+      </c>
+      <c r="F15">
+        <v>0.99999999995734989</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.41416893699285484</v>
+      </c>
+      <c r="C16">
+        <v>0.58583106298136722</v>
+      </c>
+      <c r="D16">
+        <v>0.48994550340243859</v>
+      </c>
+      <c r="E16">
+        <v>-0.022940577403835587</v>
+      </c>
+      <c r="F16">
+        <v>0.99999999994844413</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.24986361140581337</v>
+      </c>
+      <c r="C17">
+        <v>0.75013638858467402</v>
+      </c>
+      <c r="D17">
+        <v>0.42771412944486026</v>
+      </c>
+      <c r="E17">
+        <v>-0.023511161786961311</v>
+      </c>
+      <c r="F17">
+        <v>0.99999999998097477</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.12030693357580383</v>
+      </c>
+      <c r="C18">
+        <v>0.87969306641643519</v>
+      </c>
+      <c r="D18">
+        <v>0.31666209917153371</v>
+      </c>
+      <c r="E18">
+        <v>-0.028718259600149634</v>
+      </c>
+      <c r="F18">
+        <v>0.99999999998447797</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.032079646341233316</v>
+      </c>
+      <c r="C19">
+        <v>0.96792035364938922</v>
+      </c>
+      <c r="D19">
+        <v>0.16537610644360007</v>
+      </c>
+      <c r="E19">
+        <v>-0.022369714880653691</v>
+      </c>
+      <c r="F19">
+        <v>0.999999999981245</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.0019208843169030675</v>
+      </c>
+      <c r="C20">
+        <v>0.99807911564711782</v>
+      </c>
+      <c r="D20">
+        <v>-0.010191279947868066</v>
+      </c>
+      <c r="E20">
+        <v>-0.026609092899606959</v>
+      </c>
+      <c r="F20">
+        <v>0.99999999992804178</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/HWP_hand_high.xlsx
+++ b/HWP_hand_high.xlsx
@@ -20,13 +20,14 @@
     <sheet name="rho" sheetId="5" r:id="rId5"/>
     <sheet name="rho_mat" sheetId="6" r:id="rId6"/>
     <sheet name="rho_min" sheetId="7" r:id="rId7"/>
+    <sheet name="rho_max" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="11">
   <si>
     <t>theta</t>
   </si>
@@ -87,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="108">
     <border>
       <left/>
       <right/>
@@ -150,11 +151,89 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
@@ -187,6 +266,84 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2451,22 +2608,22 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="102" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2495,7 +2652,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.037999233657013798</v>
+        <v>0.037999233657013791</v>
       </c>
       <c r="C3">
         <v>0.96200076634298626</v>
@@ -2618,13 +2775,13 @@
         <v>0.88576907356609225</v>
       </c>
       <c r="C9">
-        <v>0.1142309264339078</v>
+        <v>0.11423092643390778</v>
       </c>
       <c r="D9">
         <v>-0.3180902887299516</v>
       </c>
       <c r="E9">
-        <v>-0.00088871131603042712</v>
+        <v>-0.00088871131603042723</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2638,7 +2795,7 @@
         <v>0.97121980153653575</v>
       </c>
       <c r="C10">
-        <v>0.028780198463464295</v>
+        <v>0.028780198463464298</v>
       </c>
       <c r="D10">
         <v>-0.16717168219365977</v>
@@ -2864,30 +3021,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="104" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2896,44 +3053,59 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0018894534650901454</v>
+        <v>0.10182094139060646</v>
       </c>
       <c r="C2">
-        <v>0.9979124377630999</v>
+        <v>0.89817905860939351</v>
       </c>
       <c r="D2">
-        <v>-0.015921651322048161</v>
+        <v>-0.012729963534703561</v>
       </c>
       <c r="E2">
-        <v>-0.023980687588456631</v>
+        <v>-0.019173468402453417</v>
       </c>
       <c r="F2">
-        <v>0.99960382170346562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>0.12864628762321323</v>
+      </c>
+      <c r="C3">
+        <v>0.87135371237678672</v>
+      </c>
+      <c r="D3">
+        <v>-0.15310887686907207</v>
+      </c>
+      <c r="E3">
+        <v>-0.013248550125921323</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1316701912471275</v>
+        <v>0.2057663916561572</v>
       </c>
       <c r="C4">
-        <v>0.86813007465686465</v>
+        <v>0.79423360834384282</v>
       </c>
       <c r="D4">
-        <v>-0.33472911304331926</v>
+        <v>-0.26746481910861863</v>
       </c>
       <c r="E4">
-        <v>0.00087135993740897915</v>
+        <v>0.0006962589119262789</v>
       </c>
       <c r="F4">
-        <v>0.99960057170169347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -2941,19 +3113,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.26975015084109427</v>
+        <v>0.31656506474318846</v>
       </c>
       <c r="C5">
-        <v>0.73004994190812689</v>
+        <v>0.68343493525681154</v>
       </c>
       <c r="D5">
-        <v>-0.43559129806041946</v>
+        <v>-0.34717661449690923</v>
       </c>
       <c r="E5">
-        <v>0.003642757055452446</v>
+        <v>0.0029033639275578239</v>
       </c>
       <c r="F5">
-        <v>0.9996002254613513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
@@ -2961,19 +3133,19 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.42572419435940267</v>
+        <v>0.44098653103644803</v>
       </c>
       <c r="C6">
-        <v>0.57407583797095041</v>
+        <v>0.55901346896355197</v>
       </c>
       <c r="D6">
-        <v>-0.48351646806726739</v>
+        <v>-0.38468039028093187</v>
       </c>
       <c r="E6">
-        <v>0.0060495058562135213</v>
+        <v>0.0048129204018160718</v>
       </c>
       <c r="F6">
-        <v>0.99960010464777505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -2981,19 +3153,19 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.60154866472733848</v>
+        <v>0.58107686943370263</v>
       </c>
       <c r="C7">
-        <v>0.39825211913320469</v>
+        <v>0.41892313056629732</v>
       </c>
       <c r="D7">
-        <v>-0.48351610844010018</v>
+        <v>-0.38566294649544897</v>
       </c>
       <c r="E7">
-        <v>0.0060495013567459796</v>
+        <v>0.0048252136326910004</v>
       </c>
       <c r="F7">
-        <v>0.99960160740815651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
@@ -3001,49 +3173,79 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.7569374541154783</v>
+        <v>0.70517850619427069</v>
       </c>
       <c r="C8">
-        <v>0.24286259579530531</v>
+        <v>0.29482149380572936</v>
       </c>
       <c r="D8">
-        <v>-0.42374963733409288</v>
+        <v>-0.3382554745924688</v>
       </c>
       <c r="E8">
-        <v>0.0058538373477890256</v>
+        <v>0.0046727887313856272</v>
       </c>
       <c r="F8">
-        <v>0.99960013980160545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
+      <c r="B9">
+        <v>0.81325714594793297</v>
+      </c>
+      <c r="C9">
+        <v>0.18674285405206703</v>
+      </c>
+      <c r="D9">
+        <v>-0.2582997519219794</v>
+      </c>
+      <c r="E9">
+        <v>-0.00072166274983570121</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
+      <c r="B10">
+        <v>0.87844384765501338</v>
+      </c>
+      <c r="C10">
+        <v>0.12155615234498665</v>
+      </c>
+      <c r="D10">
+        <v>-0.13425814115204004</v>
+      </c>
+      <c r="E10">
+        <v>-0.0018881117009334142</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.99781321207484863</v>
+        <v>0.897999761516168</v>
       </c>
       <c r="C11">
-        <v>0.0019889726298229671</v>
+        <v>0.102000238483832</v>
       </c>
       <c r="D11">
-        <v>0.0010433959263707237</v>
+        <v>0.00083402534988286808</v>
       </c>
       <c r="E11">
-        <v>-0.020703590943531476</v>
+        <v>-0.01654915381984676</v>
       </c>
       <c r="F11">
-        <v>0.99960440854023436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
@@ -3051,19 +3253,19 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.9623796459314935</v>
+        <v>0.86893663046171243</v>
       </c>
       <c r="C12">
-        <v>0.037421239986119799</v>
+        <v>0.13106336953828759</v>
       </c>
       <c r="D12">
-        <v>0.17373557360349637</v>
+        <v>0.13859524213111968</v>
       </c>
       <c r="E12">
-        <v>-0.019056782934741213</v>
+        <v>-0.015202295018223573</v>
       </c>
       <c r="F12">
-        <v>0.9996018114816444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -3071,19 +3273,19 @@
         <v>55</v>
       </c>
       <c r="B13">
-        <v>0.87317829506835254</v>
+        <v>0.79763893376768313</v>
       </c>
       <c r="C13">
-        <v>0.12662215226800083</v>
+        <v>0.20236106623231698</v>
       </c>
       <c r="D13">
-        <v>0.32176294272723599</v>
+        <v>0.25656256431044522</v>
       </c>
       <c r="E13">
-        <v>-0.025920349137818349</v>
+        <v>-0.020667983659815654</v>
       </c>
       <c r="F13">
-        <v>0.99960093449397225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
@@ -3091,19 +3293,19 @@
         <v>60</v>
       </c>
       <c r="B14">
-        <v>0.73193674466191216</v>
+        <v>0.68534530600797294</v>
       </c>
       <c r="C14">
-        <v>0.26786328422147837</v>
+        <v>0.314654693992027</v>
       </c>
       <c r="D14">
-        <v>0.43895190524779032</v>
+        <v>0.35062412370541973</v>
       </c>
       <c r="E14">
-        <v>-0.021148818757268852</v>
+        <v>-0.016893162908100771</v>
       </c>
       <c r="F14">
-        <v>0.99960009775522862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
@@ -3111,19 +3313,19 @@
         <v>65</v>
       </c>
       <c r="B15">
-        <v>0.57870560864425857</v>
+        <v>0.56300105979715553</v>
       </c>
       <c r="C15">
-        <v>0.42109738431839183</v>
+        <v>0.43699894020284441</v>
       </c>
       <c r="D15">
-        <v>0.49179200756026503</v>
+        <v>0.39317006214100775</v>
       </c>
       <c r="E15">
-        <v>-0.02426431039778229</v>
+        <v>-0.019398445440851779</v>
       </c>
       <c r="F15">
-        <v>0.99960602473707361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
@@ -3131,19 +3333,19 @@
         <v>70</v>
       </c>
       <c r="B16">
-        <v>0.4140691615549344</v>
+        <v>0.43140631992766032</v>
       </c>
       <c r="C16">
-        <v>0.58573122132739364</v>
+        <v>0.56859368007233968</v>
       </c>
       <c r="D16">
-        <v>0.48994531694739324</v>
+        <v>0.39155014647007447</v>
       </c>
       <c r="E16">
-        <v>-0.022940568674097279</v>
+        <v>-0.018333439903894525</v>
       </c>
       <c r="F16">
-        <v>0.99960080561164988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
@@ -3151,19 +3353,19 @@
         <v>75</v>
       </c>
       <c r="B17">
-        <v>0.249763665581273</v>
+        <v>0.30028978743877954</v>
       </c>
       <c r="C17">
-        <v>0.75003640654097814</v>
+        <v>0.69971021256122046</v>
       </c>
       <c r="D17">
-        <v>0.42771409914112113</v>
+        <v>0.34148921842529223</v>
       </c>
       <c r="E17">
-        <v>-0.023511160121438762</v>
+        <v>-0.018771435662898215</v>
       </c>
       <c r="F17">
-        <v>0.99960018421565844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
@@ -3171,19 +3373,19 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>0.12020696935745916</v>
+        <v>0.19697483675838573</v>
       </c>
       <c r="C18">
-        <v>0.87959307160178934</v>
+        <v>0.80302516324161433</v>
       </c>
       <c r="D18">
-        <v>0.31666208630217424</v>
+        <v>0.25272145516108685</v>
       </c>
       <c r="E18">
-        <v>-0.028718258433245585</v>
+        <v>-0.022919447495890973</v>
       </c>
       <c r="F18">
-        <v>0.99960012190211489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
@@ -3191,19 +3393,19 @@
         <v>85</v>
       </c>
       <c r="B19">
-        <v>0.031979673455711809</v>
+        <v>0.12626863274245917</v>
       </c>
       <c r="C19">
-        <v>0.96782035494390495</v>
+        <v>0.87373136725754075</v>
       </c>
       <c r="D19">
-        <v>0.16537610151593929</v>
+        <v>0.13208709079196751</v>
       </c>
       <c r="E19">
-        <v>-0.022369714214716403</v>
+        <v>-0.017866852860749214</v>
       </c>
       <c r="F19">
-        <v>0.99960009678787454</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
@@ -3211,22 +3413,439 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>0.0018229823154742569</v>
+        <v>0.10175764593240287</v>
       </c>
       <c r="C20">
-        <v>0.99797912119649712</v>
+        <v>0.89824235406759723</v>
       </c>
       <c r="D20">
-        <v>-0.010191258499401239</v>
+        <v>-0.0081485032663091376</v>
       </c>
       <c r="E20">
-        <v>-0.026609036899324236</v>
+        <v>-0.021275470944066701</v>
       </c>
       <c r="F20">
-        <v>0.99960424618696275</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.00083311605975079856</v>
+      </c>
+      <c r="C2">
+        <v>0.99916688394024922</v>
+      </c>
+      <c r="D2">
+        <v>-0.015958589717106415</v>
+      </c>
+      <c r="E2">
+        <v>-0.024036323030660049</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.037999233969567336</v>
+      </c>
+      <c r="C3">
+        <v>0.96200076603043261</v>
+      </c>
+      <c r="D3">
+        <v>-0.19048259393135994</v>
+      </c>
+      <c r="E3">
+        <v>-0.016482507385728911</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.13001783878023429</v>
+      </c>
+      <c r="C4">
+        <v>0.86998216121976568</v>
+      </c>
+      <c r="D4">
+        <v>-0.3363219191072781</v>
+      </c>
+      <c r="E4">
+        <v>0.00087550629737025393</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.26642508778796553</v>
+      </c>
+      <c r="C5">
+        <v>0.73357491221203441</v>
+      </c>
+      <c r="D5">
+        <v>-0.44207362757621566</v>
+      </c>
+      <c r="E5">
+        <v>0.0036969673936400526</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.42418822208388401</v>
+      </c>
+      <c r="C6">
+        <v>0.57581177791611604</v>
+      </c>
+      <c r="D6">
+        <v>-0.49418047826801598</v>
+      </c>
+      <c r="E6">
+        <v>0.0061829283897169183</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.60285741362455103</v>
+      </c>
+      <c r="C7">
+        <v>0.39714258637544897</v>
+      </c>
+      <c r="D7">
+        <v>-0.48926769724110547</v>
+      </c>
+      <c r="E7">
+        <v>0.0061214622359137463</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.7592946841161069</v>
+      </c>
+      <c r="C8">
+        <v>0.24070531588389313</v>
+      </c>
+      <c r="D8">
+        <v>-0.42747092793410313</v>
+      </c>
+      <c r="E8">
+        <v>0.0059052446599778064</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.88576907323578269</v>
+      </c>
+      <c r="C9">
+        <v>0.11423092676421734</v>
+      </c>
+      <c r="D9">
+        <v>-0.3180902884575747</v>
+      </c>
+      <c r="E9">
+        <v>-0.00088871131526933303</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.97121980119329165</v>
+      </c>
+      <c r="C10">
+        <v>0.028780198806708377</v>
+      </c>
+      <c r="D10">
+        <v>-0.16717168207188615</v>
+      </c>
+      <c r="E10">
+        <v>-0.0023509845010233309</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.99956722312942181</v>
+      </c>
+      <c r="C11">
+        <v>0.00043277687057815108</v>
+      </c>
+      <c r="D11">
+        <v>0.0010468642656299763</v>
+      </c>
+      <c r="E11">
+        <v>-0.020772411489464331</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.96771490017799422</v>
+      </c>
+      <c r="C12">
+        <v>0.032285099822005787</v>
+      </c>
+      <c r="D12">
+        <v>0.17570242281818854</v>
+      </c>
+      <c r="E12">
+        <v>-0.019272523544291313</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.87819652294343664</v>
+      </c>
+      <c r="C13">
+        <v>0.12180347705656332</v>
+      </c>
+      <c r="D13">
+        <v>0.32600261165899147</v>
+      </c>
+      <c r="E13">
+        <v>-0.026261885357024988</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.73345715935074696</v>
+      </c>
+      <c r="C14">
+        <v>0.26654284064925299</v>
+      </c>
+      <c r="D14">
+        <v>0.44163898014547531</v>
+      </c>
+      <c r="E14">
+        <v>-0.021278282735711473</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.57901644215990844</v>
+      </c>
+      <c r="C15">
+        <v>0.42098355784009156</v>
+      </c>
+      <c r="D15">
+        <v>0.49311709317587055</v>
+      </c>
+      <c r="E15">
+        <v>-0.024329688216425976</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.41381308484732737</v>
+      </c>
+      <c r="C16">
+        <v>0.58618691515267274</v>
+      </c>
+      <c r="D16">
+        <v>0.49197680043180975</v>
+      </c>
+      <c r="E16">
+        <v>-0.023035688241062245</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.24786911548041277</v>
+      </c>
+      <c r="C17">
+        <v>0.75213088451958721</v>
+      </c>
+      <c r="D17">
+        <v>0.43112456589608739</v>
+      </c>
+      <c r="E17">
+        <v>-0.023698631215157372</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.11666047577729738</v>
+      </c>
+      <c r="C18">
+        <v>0.88333952422270257</v>
+      </c>
+      <c r="D18">
+        <v>0.31970322644484567</v>
+      </c>
+      <c r="E18">
+        <v>-0.028994061102168876</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.029055055925523068</v>
+      </c>
+      <c r="C19">
+        <v>0.97094494407447685</v>
+      </c>
+      <c r="D19">
+        <v>0.16644508070717298</v>
+      </c>
+      <c r="E19">
+        <v>-0.022514310433820482</v>
+      </c>
+      <c r="F19">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.00081617821878563986</v>
+      </c>
+      <c r="C20">
+        <v>0.99918382178121434</v>
+      </c>
+      <c r="D20">
+        <v>-0.010213883482575223</v>
+      </c>
+      <c r="E20">
+        <v>-0.026668109977703955</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>